--- a/biology/Origine et évolution du vivant/Reginald_Punnett/Reginald_Punnett.xlsx
+++ b/biology/Origine et évolution du vivant/Reginald_Punnett/Reginald_Punnett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reginald Crundall Punnett était un généticien britannique né le 20 juin 1875 à Tonbridge (Kent) et décédé le 3 janvier 1967 à Bilbrook (Somerset).
 </t>
@@ -511,7 +523,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a cofondé avec William Bateson, le journal scientifique Journal of Genetics en 1910. La même année, il devint professeur de biologie à l'université de Cambridge.
 Il est également connu comme étant le créateur de l'échiquier de Punnett, un outil toujours utilisé par les généticiens pour prédire les génotypes possibles des descendants résultant d’un croisement.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lineus. London. Williams and Norgate (1901)
 Mendelism. Cambridge. Bowes and Bowes (1905)
